--- a/image_info.xlsx
+++ b/image_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,659 +461,3314 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>timestamp</t>
+          <t>timestampImage</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>timestampDetection</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>flight_1_DJI_0042.JPG</t>
+          <t>DJI_0029.JPG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[3320.673, 1439.021, 46.852, 46.031]</t>
+          <t>[1605.4296875, 2315.09326171875, 38.3194580078125, 39.1201171875]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45.11737725</v>
+        <v>45.11728988888889</v>
       </c>
       <c r="D2" t="n">
-        <v>14.20055952777778</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-84.2</v>
-      </c>
+        <v>14.1960305</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025:05:20 11:33:55</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>flight_1_DJI_0065.JPG</t>
+          <t>DJI_0029.JPG</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[3895.47, 1959.253, 57.074, 55.253]</t>
+          <t>[3413.541015625, 85.30845642089844, 39.930908203125, 43.72180938720703]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>45.11665358333333</v>
+        <v>45.11728988888889</v>
       </c>
       <c r="D3" t="n">
-        <v>14.19878266666667</v>
-      </c>
-      <c r="E3" t="n">
-        <v>110.1</v>
-      </c>
+        <v>14.1960305</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025:05:20 11:37:11</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>flight_1_DJI_0071.JPG</t>
+          <t>DJI_0030.JPG</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[3123.579, 1367.514, 53.794, 54.498]</t>
+          <t>[2001.63330078125, 2762.882080078125, 42.90234375, 42.2783203125]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>45.11707272222223</v>
+        <v>45.11727836111111</v>
       </c>
       <c r="D4" t="n">
-        <v>14.19870519444444</v>
-      </c>
-      <c r="E4" t="n">
-        <v>52</v>
-      </c>
+        <v>14.19603833333333</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025:05:20 11:38:05</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>flight_1_DJI_0079.JPG</t>
+          <t>DJI_0031.JPG</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[4097.906, 1637.986, 59.243, 56.002]</t>
+          <t>[1029.9334716796875, 1055.212158203125, 40.53369140625, 40.6104736328125]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45.11763313888889</v>
+        <v>45.11727930555556</v>
       </c>
       <c r="D5" t="n">
-        <v>14.20006216666667</v>
-      </c>
-      <c r="E5" t="n">
-        <v>82.59999999999999</v>
-      </c>
+        <v>14.19603133333333</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025:05:20 11:39:18</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>flight_1_DJI_0110.JPG</t>
+          <t>DJI_0031.JPG</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[4367.003, 1617.713, 65.406, 64.142]</t>
+          <t>[3617.138427734375, 2371.505859375, 44.10400390625, 42.17236328125]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>45.11734880555556</v>
+        <v>45.11727930555556</v>
       </c>
       <c r="D6" t="n">
-        <v>14.19925638888889</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-25.4</v>
-      </c>
+        <v>14.19603133333333</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025:05:20 11:43:46</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>flight_1_DJI_0112.JPG</t>
+          <t>DJI_0037.JPG</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[3878.956, 716.932, 57.866, 57.537]</t>
+          <t>[2210.82177734375, 1724.9793701171875, 40.37890625, 39.856689453125]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>45.11735461111111</v>
+        <v>45.11703775</v>
       </c>
       <c r="D7" t="n">
-        <v>14.19925505555556</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6.5</v>
-      </c>
+        <v>14.19616669444444</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025:05:20 11:43:59</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>flight_1_DJI_0114.JPG</t>
+          <t>DJI_0043.JPG</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[2517.644, 1595.766, 64.86, 61.178]</t>
+          <t>[1742.83642578125, 1654.412841796875, 39.4735107421875, 39.8837890625]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>45.11736052777778</v>
+        <v>45.11736380555556</v>
       </c>
       <c r="D8" t="n">
-        <v>14.19943325</v>
-      </c>
-      <c r="E8" t="n">
-        <v>129.5</v>
-      </c>
+        <v>14.19604188888889</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025:05:20 11:44:20</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>flight_1_DJI_0118.JPG</t>
+          <t>DJI_0043.JPG</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[1974.609, 1485.041, 62.893, 60.998]</t>
+          <t>[4452.8671875, 2647.60595703125, 40.48876953125, 39.570068359375]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>45.11735072222222</v>
+        <v>45.11736380555556</v>
       </c>
       <c r="D9" t="n">
-        <v>14.19929405555555</v>
-      </c>
-      <c r="E9" t="n">
-        <v>150.2</v>
-      </c>
+        <v>14.19604188888889</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025:05:20 11:44:46</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>flight_1_DJI_0125.JPG</t>
+          <t>DJI_0045.JPG</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[1701.513, 2210.031, 55.367, 56.285]</t>
+          <t>[2754.4384765625, 2586.45166015625, 40.01904296875, 39.745361328125]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>45.11744827777778</v>
+        <v>45.11735216666667</v>
       </c>
       <c r="D10" t="n">
-        <v>14.19909472222222</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-106.8</v>
-      </c>
+        <v>14.19606408333333</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025:05:20 11:45:30</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>flight_23_DJI_0053.JPG</t>
+          <t>DJI_0048.JPG</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[3855.707, 2501.173, 45.137, 46.715]</t>
+          <t>[117.51707458496094, 465.75299072265625, 44.149871826171875, 43.77777099609375]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>45.11756911111111</v>
+        <v>45.11706872222222</v>
       </c>
       <c r="D11" t="n">
-        <v>14.19614672222222</v>
-      </c>
-      <c r="E11" t="n">
-        <v>119.4</v>
-      </c>
+        <v>14.19653588888889</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025:05:20 11:57:59</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>flight_23_DJI_0056.JPG</t>
+          <t>DJI_0050.JPG</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[1978.16, 503.22, 42.184, 43.141]</t>
+          <t>[360.11767578125, 2392.73046875, 41.23779296875, 42.710205078125]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>45.11724036111112</v>
+        <v>45.11738513888889</v>
       </c>
       <c r="D12" t="n">
-        <v>14.19596258333333</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-141.8</v>
-      </c>
+        <v>14.19585502777778</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025:05:20 11:58:12</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>flight_23_DJI_0067.JPG</t>
+          <t>DJI_0052.JPG</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[1195.08, 1421.607, 44.48, 43.432]</t>
+          <t>[3585.52734375, 1112.033935546875, 40.103271484375, 40.548095703125]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>45.11781338888889</v>
+        <v>45.11764161111111</v>
       </c>
       <c r="D13" t="n">
-        <v>14.19773619444445</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-51.3</v>
-      </c>
+        <v>14.19581258333333</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025:05:20 11:59:28</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>flight_23_DJI_0069.JPG</t>
+          <t>DJI_0053.JPG</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[3505.327, 2502.779, 36.53, 38.51]</t>
+          <t>[3878.2607421875, 2524.56201171875, 45.2529296875, 46.836181640625]</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>45.11781438888889</v>
+        <v>45.11756911111111</v>
       </c>
       <c r="D14" t="n">
-        <v>14.19773894444445</v>
-      </c>
-      <c r="E14" t="n">
-        <v>87.59999999999999</v>
-      </c>
+        <v>14.19614672222222</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025:05:20 11:59:37</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>flight_23_DJI_0138.JPG</t>
+          <t>DJI_0055.JPG</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[4202.721, 513.013, 55.879, 53.406]</t>
+          <t>[4175.8193359375, 1400.8458251953125, 41.99853515625, 44.228759765625]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>45.11808391666667</v>
+        <v>45.11736575</v>
       </c>
       <c r="D15" t="n">
-        <v>14.1956875</v>
-      </c>
-      <c r="E15" t="n">
-        <v>19.4</v>
-      </c>
+        <v>14.196121</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025:05:20 12:11:04</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>flight_23_DJI_0147.JPG</t>
+          <t>DJI_0056.JPG</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[3985.657, 340.182, 59.245, 58.021]</t>
+          <t>[1999.2603759765625, 524.8099365234375, 42.16943359375, 43.132965087890625]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>45.11786022222222</v>
+        <v>45.11724036111112</v>
       </c>
       <c r="D16" t="n">
-        <v>14.19616130555556</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-59.3</v>
-      </c>
+        <v>14.19596258333333</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025:05:20 12:11:37</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>flight_23_DJI_0199.JPG</t>
+          <t>DJI_0057.JPG</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[3766.073, 1707.685, 34.547, 35.773]</t>
+          <t>[2085.71728515625, 1107.2689208984375, 34.971435546875, 32.926513671875]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>45.11851819444445</v>
+        <v>45.11714822222222</v>
       </c>
       <c r="D17" t="n">
-        <v>14.19588661111111</v>
-      </c>
-      <c r="E17" t="n">
-        <v>132.9</v>
-      </c>
+        <v>14.19586058333333</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025:05:20 12:15:09</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>flight_23_DJI_0218.JPG</t>
+          <t>DJI_0058.JPG</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[2258.83, 2503.329, 38.844, 39.951]</t>
+          <t>[2424.90673828125, 1198.2701416015625, 39.2783203125, 39.042724609375]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>45.11850283333333</v>
+        <v>45.11705175</v>
       </c>
       <c r="D18" t="n">
-        <v>14.19531241666667</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-88.7</v>
-      </c>
+        <v>14.19585483333333</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025:05:20 12:16:07</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>flight_23_DJI_0240.JPG</t>
+          <t>DJI_0059.JPG</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[2966.073, 1895.097, 41.022, 40.448]</t>
+          <t>[2789.94140625, 1914.2401123046875, 35.812744140625, 35.136962890625]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>45.11851511111111</v>
+        <v>45.11711</v>
       </c>
       <c r="D19" t="n">
-        <v>14.19528319444444</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-26.9</v>
-      </c>
+        <v>14.19587061111111</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025:05:20 12:17:29</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>flight_23_DJI_0246.JPG</t>
+          <t>DJI_0066.JPG</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[2508.193, 2043.085, 35.501, 37.49]</t>
+          <t>[1282.01220703125, 1845.5238037109375, 46.9088134765625, 45.623291015625]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>45.11851852777778</v>
+        <v>45.11781352777778</v>
       </c>
       <c r="D20" t="n">
-        <v>14.19550575</v>
-      </c>
-      <c r="E20" t="n">
-        <v>80.90000000000001</v>
-      </c>
+        <v>14.19773502777778</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025:05:20 12:17:50</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>flight_23_DJI_0247.JPG</t>
+          <t>DJI_0067.JPG</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[1799.369, 1316.994, 40.699, 42.563]</t>
+          <t>[1217.21484375, 1443.310791015625, 44.448974609375, 43.3857421875]</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>45.11856475</v>
+        <v>45.11781338888889</v>
       </c>
       <c r="D21" t="n">
-        <v>14.19551380555556</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-26.4</v>
-      </c>
+        <v>14.19773619444445</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025:05:20 12:17:54</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>flight_23_DJI_0252.JPG</t>
+          <t>DJI_0069.JPG</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[3042.175, 2548.493, 43.753, 42.928]</t>
+          <t>[3523.71728515625, 2522.076904296875, 36.589111328125, 38.556640625]</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>45.11835313888889</v>
+        <v>45.11781438888889</v>
       </c>
       <c r="D22" t="n">
-        <v>14.19528736111111</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-143</v>
-      </c>
+        <v>14.19773894444445</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025:05:20 12:18:09</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>flight_23_DJI_0298.JPG</t>
+          <t>DJI_0102.JPG</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[4313.463, 185.217, 46.326, 45.737]</t>
+          <t>[3255.766357421875, 1736.1031494140625, 38.99365234375, 44.9658203125]</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>45.11836494444444</v>
+        <v>45.11799319444444</v>
       </c>
       <c r="D23" t="n">
-        <v>14.19523622222222</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-96.40000000000001</v>
-      </c>
+        <v>14.19659063888889</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025:05:20 12:20:45</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>flight_23_DJI_0299.JPG</t>
+          <t>DJI_0103.JPG</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>[4158.607, 378.885, 39.252, 41.384]</t>
+          <t>[3211.990234375, 1176.8304443359375, 39.196533203125, 39.4306640625]</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>45.118363</v>
+        <v>45.11799261111111</v>
       </c>
       <c r="D24" t="n">
-        <v>14.19511211111111</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-84.8</v>
-      </c>
+        <v>14.19659047222222</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025:05:20 12:20:48</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>flight_23_DJI_0324.JPG</t>
+          <t>DJI_0104.JPG</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>[4289.431, 1422.708, 43.32, 44.593]</t>
+          <t>[3203.348388671875, 1654.601806640625, 42.4150390625, 42.21826171875]</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>45.11839544444445</v>
+        <v>45.11794152777778</v>
       </c>
       <c r="D25" t="n">
-        <v>14.19504727777778</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-123.5</v>
-      </c>
+        <v>14.19645758333333</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025:05:20 12:22:20</t>
-        </is>
-      </c>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>flight_23_DJI_0369.JPG</t>
+          <t>DJI_0107.JPG</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[2110.889, 1554.162, 37.915, 37.561]</t>
+          <t>[3530.611572265625, 2119.25732421875, 53.80322265625, 52.585205078125]</t>
         </is>
       </c>
       <c r="C26" t="n">
+        <v>45.11797058333333</v>
+      </c>
+      <c r="D26" t="n">
+        <v>14.19618891666667</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DJI_0110.JPG</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[3314.1826171875, 533.8408203125, 58.0126953125, 59.776275634765625]</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>45.11815030555556</v>
+      </c>
+      <c r="D27" t="n">
+        <v>14.19614797222222</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DJI_0111.JPG</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[3133.303955078125, 1014.6778564453125, 63.7724609375, 60.41650390625]</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>45.11814358333334</v>
+      </c>
+      <c r="D28" t="n">
+        <v>14.19627077777778</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DJI_0112.JPG</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[2954.822998046875, 1314.241943359375, 52.677734375, 52.761962890625]</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>45.11812002777778</v>
+      </c>
+      <c r="D29" t="n">
+        <v>14.19636208333333</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DJI_0113.JPG</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[2915.439453125, 1825.1531982421875, 56.309814453125, 55.229736328125]</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>45.1180955</v>
+      </c>
+      <c r="D30" t="n">
+        <v>14.19645211111111</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DJI_0115.JPG</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[1668.17041015625, 1922.4654541015625, 54.4503173828125, 55.68310546875]</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>45.11813458333334</v>
+      </c>
+      <c r="D31" t="n">
+        <v>14.19656527777778</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DJI_0116.JPG</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[1472.271240234375, 1915.16943359375, 65.15966796875, 64.724853515625]</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>45.11820708333333</v>
+      </c>
+      <c r="D32" t="n">
+        <v>14.19654811111111</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DJI_0117.JPG</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[1308.60693359375, 1763.403076171875, 55.9886474609375, 54.34765625]</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>45.11825158333333</v>
+      </c>
+      <c r="D33" t="n">
+        <v>14.19651844444444</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DJI_0118.JPG</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[1220.0540771484375, 1365.1806640625, 53.426025390625, 50.7537841796875]</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>45.11827805555556</v>
+      </c>
+      <c r="D34" t="n">
+        <v>14.19647736111111</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>DJI_0119.JPG</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[1268.133056640625, 1297.7130126953125, 51.524658203125, 50.103271484375]</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>45.11830041666667</v>
+      </c>
+      <c r="D35" t="n">
+        <v>14.19638025</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>DJI_0123.JPG</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[1439.356201171875, 777.4808349609375, 57.210693359375, 58.567626953125]</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>45.11790602777778</v>
+      </c>
+      <c r="D36" t="n">
+        <v>14.19638461111111</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>DJI_0124.JPG</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[3025.7177734375, 806.078857421875, 65.101318359375, 66.68768310546875]</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>45.11798738888889</v>
+      </c>
+      <c r="D37" t="n">
+        <v>14.19629175</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>DJI_0125.JPG</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[2842.2275390625, 840.73681640625, 60.866943359375, 60.49078369140625]</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>45.11800722222223</v>
+      </c>
+      <c r="D38" t="n">
+        <v>14.19627091666667</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>DJI_0128.JPG</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[3545.33154296875, 2246.78955078125, 55.886962890625, 56.47802734375]</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>45.11829955555556</v>
+      </c>
+      <c r="D39" t="n">
+        <v>14.19619219444444</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>DJI_0130.JPG</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[3640.7080078125, 920.36572265625, 50.405517578125, 49.3544921875]</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>45.11827969444445</v>
+      </c>
+      <c r="D40" t="n">
+        <v>14.19639511111111</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>DJI_0132.JPG</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[3609.410888671875, 1916.675537109375, 59.73486328125, 59.467529296875]</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>45.11807555555556</v>
+      </c>
+      <c r="D41" t="n">
+        <v>14.19645127777778</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>DJI_0134.JPG</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[3928.8115234375, 1867.837890625, 51.35205078125, 50.476806640625]</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>45.11791847222222</v>
+      </c>
+      <c r="D42" t="n">
+        <v>14.19626497222222</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DJI_0135.JPG</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[3797.106689453125, 1798.539794921875, 39.0234375, 40.4293212890625]</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>45.11791897222222</v>
+      </c>
+      <c r="D43" t="n">
+        <v>14.196255</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>DJI_0136.JPG</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[3985.8037109375, 2118.182861328125, 56.440673828125, 56.556640625]</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>45.11787733333333</v>
+      </c>
+      <c r="D44" t="n">
+        <v>14.19606305555556</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DJI_0137.JPG</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[4256.203125, 1321.242919921875, 51.41552734375, 50.7694091796875]</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>45.11791211111111</v>
+      </c>
+      <c r="D45" t="n">
+        <v>14.19589586111111</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>DJI_0138.JPG</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[4230.6376953125, 539.7279052734375, 55.88525390625, 53.33172607421875]</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>45.11808391666667</v>
+      </c>
+      <c r="D46" t="n">
+        <v>14.1956875</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>DJI_0140.JPG</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[3776.9697265625, 400.7268981933594, 43.155517578125, 44.4945068359375]</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>45.11836472222222</v>
+      </c>
+      <c r="D47" t="n">
+        <v>14.19583527777778</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>DJI_0141.JPG</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[3841.32666015625, 1428.808349609375, 50.164794921875, 53.7501220703125]</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>45.11839005555556</v>
+      </c>
+      <c r="D48" t="n">
+        <v>14.19609252777778</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>DJI_0142.JPG</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[3666.94677734375, 1126.279052734375, 47.065673828125, 46.647705078125]</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>45.1183675</v>
+      </c>
+      <c r="D49" t="n">
+        <v>14.19621438888889</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>DJI_0145.JPG</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[4020.4169921875, 1932.9591064453125, 57.433837890625, 60.20556640625]</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>45.11801511111111</v>
+      </c>
+      <c r="D50" t="n">
+        <v>14.19639647222222</v>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>DJI_0147.JPG</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[4015.267578125, 369.20849609375, 59.108642578125, 57.953216552734375]</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>45.11786022222222</v>
+      </c>
+      <c r="D51" t="n">
+        <v>14.19616130555556</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>DJI_0148.JPG</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>[4017.525390625, 708.6309814453125, 53.443115234375, 52.41876220703125]</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>45.11790952777778</v>
+      </c>
+      <c r="D52" t="n">
+        <v>14.19597316666667</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>DJI_0151.JPG</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>[3379.619873046875, 1031.02392578125, 51.8681640625, 53.7674560546875]</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>45.11810558333333</v>
+      </c>
+      <c r="D53" t="n">
+        <v>14.19587936111111</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>DJI_0153.JPG</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[3461.746826171875, 2021.461669921875, 56.55517578125, 55.0650634765625]</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>45.11836288888889</v>
+      </c>
+      <c r="D54" t="n">
+        <v>14.19587222222222</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>DJI_0154.JPG</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>[4235.84814453125, 2131.684326171875, 53.6767578125, 55.94140625]</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>45.11852688888889</v>
+      </c>
+      <c r="D55" t="n">
+        <v>14.19593905555556</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>DJI_0155.JPG</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>[4105.830078125, 582.1011352539062, 46.21923828125, 45.6405029296875]</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>45.11853752777778</v>
+      </c>
+      <c r="D56" t="n">
+        <v>14.19594347222222</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>DJI_0156.JPG</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>[3984.8154296875, 648.5849609375, 41.706298828125, 42.19793701171875]</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>45.11853769444444</v>
+      </c>
+      <c r="D57" t="n">
+        <v>14.19594138888889</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>DJI_0159.JPG</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>[1955.864013671875, 1522.2830810546875, 51.006103515625, 50.590087890625]</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>45.11833563888889</v>
+      </c>
+      <c r="D58" t="n">
+        <v>14.19588888888889</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>DJI_0160.JPG</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>[1921.384521484375, 1769.45556640625, 59.1981201171875, 58.0384521484375]</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>45.11828752777778</v>
+      </c>
+      <c r="D59" t="n">
+        <v>14.19578313888889</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>DJI_0161.JPG</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>[1402.5572509765625, 1757.8116455078125, 57.241943359375, 56.7060546875]</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>45.11818938888889</v>
+      </c>
+      <c r="D60" t="n">
+        <v>14.19563319444445</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>DJI_0162.JPG</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>[1270.3978271484375, 1263.446533203125, 46.187744140625, 47.4888916015625]</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>45.11809483333333</v>
+      </c>
+      <c r="D61" t="n">
+        <v>14.19565888888889</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>DJI_0163.JPG</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>[1467.5609130859375, 851.0585327148438, 52.569580078125, 51.457275390625]</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>45.11804669444444</v>
+      </c>
+      <c r="D62" t="n">
+        <v>14.19575841666667</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>DJI_0166.JPG</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>[2326.6953125, 1073.9833984375, 45.697265625, 47.629150390625]</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>45.11826058333333</v>
+      </c>
+      <c r="D63" t="n">
+        <v>14.19607658333333</v>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>DJI_0168.JPG</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>[1103.404296875, 1592.604736328125, 39.7664794921875, 36.9122314453125]</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>45.11846605555556</v>
+      </c>
+      <c r="D64" t="n">
+        <v>14.19560991666667</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>DJI_0172.JPG</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>[1955.6171875, 1052.732421875, 49.0211181640625, 49.1319580078125]</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>45.11818711111111</v>
+      </c>
+      <c r="D65" t="n">
+        <v>14.1957925</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>DJI_0173.JPG</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>[1727.815673828125, 1449.04443359375, 47.3720703125, 45.42333984375]</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>45.1181875</v>
+      </c>
+      <c r="D66" t="n">
+        <v>14.19579377777778</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>DJI_0174.JPG</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>[1689.102783203125, 1918.00146484375, 48.7257080078125, 49.092041015625]</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>45.11817511111111</v>
+      </c>
+      <c r="D67" t="n">
+        <v>14.19591127777778</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>DJI_0177.JPG</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>[1686.47705078125, 2503.134765625, 52.7755126953125, 51.3701171875]</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>45.11816683333333</v>
+      </c>
+      <c r="D68" t="n">
+        <v>14.19606213888889</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>DJI_0181.JPG</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>[2614.75048828125, 741.9119873046875, 60.6318359375, 59.21783447265625]</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>45.118343</v>
+      </c>
+      <c r="D69" t="n">
+        <v>14.19563411111111</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>DJI_0182.JPG</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>[2692.09765625, 2009.510009765625, 60.658447265625, 63.1829833984375]</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>45.11836655555555</v>
+      </c>
+      <c r="D70" t="n">
+        <v>14.1959095</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>DJI_0190.JPG</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>[3803.83251953125, 214.8106689453125, 35.9619140625, 39.05607604980469]</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>45.11866547222223</v>
+      </c>
+      <c r="D71" t="n">
+        <v>14.19586897222222</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>DJI_0195.JPG</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>[4305.5244140625, 1058.03271484375, 40.8330078125, 37.9774169921875]</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>45.118303</v>
+      </c>
+      <c r="D72" t="n">
+        <v>14.19531686111111</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>DJI_0196.JPG</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>[4058.19677734375, 275.7488098144531, 35.65576171875, 36.944580078125]</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>45.11851988888889</v>
+      </c>
+      <c r="D73" t="n">
+        <v>14.19528436111111</v>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>DJI_0197.JPG</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>[3790.06396484375, 449.421875, 35.41357421875, 33.689849853515625]</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>45.11865980555556</v>
+      </c>
+      <c r="D74" t="n">
+        <v>14.19569036111111</v>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>DJI_0198.JPG</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>[3790.361572265625, 910.3995971679688, 40.5419921875, 39.013427734375]</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>45.11861061111111</v>
+      </c>
+      <c r="D75" t="n">
+        <v>14.19575672222222</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>DJI_0199.JPG</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>[3783.39892578125, 1725.622802734375, 34.555908203125, 35.7926025390625]</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>45.11851819444445</v>
+      </c>
+      <c r="D76" t="n">
+        <v>14.19588661111111</v>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>DJI_0209.JPG</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>[3510.92724609375, 786.1549072265625, 45.06494140625, 45.15771484375]</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>45.11829958333333</v>
+      </c>
+      <c r="D77" t="n">
+        <v>14.19577755555555</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>DJI_0211.JPG</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>[4045.18310546875, 1307.2181396484375, 39.081787109375, 38.453369140625]</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>45.11837897222222</v>
+      </c>
+      <c r="D78" t="n">
+        <v>14.19528263888889</v>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>DJI_0213.JPG</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>[3218.45751953125, 1527.8184814453125, 38.383056640625, 35.994140625]</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>45.11853675</v>
+      </c>
+      <c r="D79" t="n">
+        <v>14.19559780555556</v>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>DJI_0218.JPG</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>[2278.250244140625, 2523.447509765625, 38.7021484375, 39.927734375]</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>45.11850283333333</v>
+      </c>
+      <c r="D80" t="n">
+        <v>14.19531241666667</v>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>DJI_0220.JPG</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>[114.22393798828125, 1270.2724609375, 38.34192657470703, 39.879150390625]</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>45.11834480555556</v>
+      </c>
+      <c r="D81" t="n">
+        <v>14.19501036111111</v>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>DJI_0230.JPG</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>[2412.3564453125, 1733.338623046875, 37.472412109375, 40.2867431640625]</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>45.11845005555556</v>
+      </c>
+      <c r="D82" t="n">
+        <v>14.19543347222222</v>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>DJI_0232.JPG</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[1333.03466796875, 1915.8175048828125, 43.7279052734375, 41.36279296875]</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>45.11827686111111</v>
+      </c>
+      <c r="D83" t="n">
+        <v>14.19540511111111</v>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>DJI_0233.JPG</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[2289.99951171875, 595.717529296875, 43.676025390625, 44.29779052734375]</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>45.11836433333333</v>
+      </c>
+      <c r="D84" t="n">
+        <v>14.19556130555556</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>DJI_0234.JPG</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>[2030.4119873046875, 1465.1024169921875, 41.070068359375, 39.870849609375]</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>45.11846425</v>
+      </c>
+      <c r="D85" t="n">
+        <v>14.19554358333333</v>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>DJI_0236.JPG</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>[752.474609375, 1842.672607421875, 43.208251953125, 42.43115234375]</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>45.11866405555556</v>
+      </c>
+      <c r="D86" t="n">
+        <v>14.19572547222222</v>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>DJI_0237.JPG</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>[2856.204345703125, 716.776611328125, 40.17138671875, 41.21868896484375]</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>45.11855952777778</v>
+      </c>
+      <c r="D87" t="n">
+        <v>14.19555947222222</v>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>DJI_0240.JPG</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>[2986.61328125, 1915.283935546875, 40.970458984375, 40.4075927734375]</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>45.11851511111111</v>
+      </c>
+      <c r="D88" t="n">
+        <v>14.19528319444444</v>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>DJI_0241.JPG</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>[3537.729736328125, 2516.3359375, 42.29443359375, 42.370361328125]</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>45.11862344444445</v>
+      </c>
+      <c r="D89" t="n">
+        <v>14.19515894444445</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>DJI_0244.JPG</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>[2864.46728515625, 1381.055419921875, 39.92919921875, 39.6759033203125]</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>45.11854575</v>
+      </c>
+      <c r="D90" t="n">
+        <v>14.19539525</v>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>DJI_0246.JPG</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>[2525.9296875, 2061.907470703125, 35.472900390625, 37.5198974609375]</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>45.11851852777778</v>
+      </c>
+      <c r="D91" t="n">
+        <v>14.19550575</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>DJI_0247.JPG</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>[1819.758056640625, 1338.2568359375, 40.6085205078125, 42.515869140625]</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>45.11856475</v>
+      </c>
+      <c r="D92" t="n">
+        <v>14.19551380555556</v>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>DJI_0249.JPG</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>[1425.495849609375, 1503.040771484375, 42.9705810546875, 39.8779296875]</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>45.11862127777778</v>
+      </c>
+      <c r="D93" t="n">
+        <v>14.19514105555556</v>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>DJI_0250.JPG</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>[2077.44189453125, 585.8958740234375, 41.818115234375, 40.912841796875]</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>45.11855758333333</v>
+      </c>
+      <c r="D94" t="n">
+        <v>14.19513125</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>DJI_0252.JPG</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>[3064.02099609375, 2569.96240234375, 43.558349609375, 42.774658203125]</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>45.11835313888889</v>
+      </c>
+      <c r="D95" t="n">
+        <v>14.19528736111111</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>DJI_0255.JPG</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>[3783.3173828125, 1770.1260986328125, 39.492431640625, 40.525146484375]</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>45.11848825</v>
+      </c>
+      <c r="D96" t="n">
+        <v>14.19504311111111</v>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>DJI_0262.JPG</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>[3601.20361328125, 118.22529602050781, 38.554931640625, 36.997474670410156]</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>45.11866216666667</v>
+      </c>
+      <c r="D97" t="n">
+        <v>14.19559652777778</v>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>DJI_0264.JPG</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>[1071.508544921875, 2173.15625, 42.50732421875, 41.499755859375]</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>45.11866427777777</v>
+      </c>
+      <c r="D98" t="n">
+        <v>14.19559891666667</v>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>DJI_0265.JPG</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>[1630.02294921875, 2843.9521484375, 42.1492919921875, 43.089111328125]</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>45.11866358333334</v>
+      </c>
+      <c r="D99" t="n">
+        <v>14.19560086111111</v>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>DJI_0268.JPG</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>[3313.642822265625, 864.3162841796875, 42.71044921875, 40.77618408203125]</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>45.11852975</v>
+      </c>
+      <c r="D100" t="n">
+        <v>14.19538655555556</v>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>DJI_0280.JPG</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>[3871.92626953125, 1667.377685546875, 37.4482421875, 40.5657958984375]</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>45.11871983333334</v>
+      </c>
+      <c r="D101" t="n">
+        <v>14.19539013888889</v>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>DJI_0284.JPG</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>[4334.7783203125, 658.9475708007812, 38.82275390625, 39.5855712890625]</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>45.11840775</v>
+      </c>
+      <c r="D102" t="n">
+        <v>14.19540341666667</v>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>DJI_0286.JPG</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>[4338.4814453125, 1191.080810546875, 42.65087890625, 43.0230712890625]</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>45.11832727777778</v>
+      </c>
+      <c r="D103" t="n">
+        <v>14.19518655555555</v>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>DJI_0287.JPG</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>[4507.419921875, 856.3701171875, 40.05859375, 41.00909423828125]</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>45.11839236111111</v>
+      </c>
+      <c r="D104" t="n">
+        <v>14.19479030555556</v>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>DJI_0292.JPG</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>[3747.59521484375, 1261.5023193359375, 45.300048828125, 43.057861328125]</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>45.11879797222223</v>
+      </c>
+      <c r="D105" t="n">
+        <v>14.19500575</v>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>DJI_0296.JPG</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>[4462.642578125, 525.6576538085938, 47.90478515625, 47.970977783203125]</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>45.11871875</v>
+      </c>
+      <c r="D106" t="n">
+        <v>14.19544816666667</v>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>DJI_0298.JPG</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>[4336.6044921875, 208.13180541992188, 46.330078125, 45.71305847167969]</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>45.11836494444444</v>
+      </c>
+      <c r="D107" t="n">
+        <v>14.19523622222222</v>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>DJI_0299.JPG</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>[4178.2666015625, 399.54779052734375, 39.18701171875, 41.298248291015625]</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>45.118363</v>
+      </c>
+      <c r="D108" t="n">
+        <v>14.19511211111111</v>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>DJI_0311.JPG</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>[1942.766845703125, 2101.779296875, 44.7164306640625, 43.1953125]</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>45.11846641666667</v>
+      </c>
+      <c r="D109" t="n">
+        <v>14.19492805555556</v>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>DJI_0313.JPG</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>[1407.2666015625, 780.8046875, 44.812255859375, 43.183349609375]</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>45.11847822222222</v>
+      </c>
+      <c r="D110" t="n">
+        <v>14.19513769444444</v>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>DJI_0316.JPG</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>[3201.873291015625, 1185.2547607421875, 42.16845703125, 41.73193359375]</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>45.11857452777778</v>
+      </c>
+      <c r="D111" t="n">
+        <v>14.19500794444444</v>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>DJI_0320.JPG</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>[2657.66015625, 712.3333740234375, 41.978759765625, 42.55865478515625]</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>45.11857616666666</v>
+      </c>
+      <c r="D112" t="n">
+        <v>14.19473422222222</v>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>DJI_0322.JPG</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>[3261.593994140625, 1843.828125, 41.0732421875, 41.15185546875]</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>45.11860016666667</v>
+      </c>
+      <c r="D113" t="n">
+        <v>14.19502813888889</v>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>DJI_0324.JPG</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>[4311.0546875, 1445.063720703125, 43.29833984375, 44.577880859375]</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>45.11839544444445</v>
+      </c>
+      <c r="D114" t="n">
+        <v>14.19504727777778</v>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>DJI_0328.JPG</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>[1166.4873046875, 2058.10009765625, 41.1583251953125, 41.872802734375]</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>45.118807</v>
+      </c>
+      <c r="D115" t="n">
+        <v>14.19505155555556</v>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>DJI_0331.JPG</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>[1479.38720703125, 1779.553466796875, 46.1097412109375, 45.117431640625]</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>45.11847502777778</v>
+      </c>
+      <c r="D116" t="n">
+        <v>14.19474511111111</v>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>DJI_0334.JPG</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>[3181.9833984375, 2049.201171875, 43.736572265625, 43.0325927734375]</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>45.11866794444445</v>
+      </c>
+      <c r="D117" t="n">
+        <v>14.19462469444444</v>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>DJI_0343.JPG</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>[2821.65478515625, 575.64453125, 44.221923828125, 44.04888916015625]</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>45.11850525</v>
+      </c>
+      <c r="D118" t="n">
+        <v>14.19473288888889</v>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>DJI_0350.JPG</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>[2813.716796875, 1899.739013671875, 37.551025390625, 35.7132568359375]</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>45.11870333333334</v>
+      </c>
+      <c r="D119" t="n">
+        <v>14.19457344444444</v>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>DJI_0351.JPG</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>[682.9796142578125, 1600.115234375, 35.1507568359375, 39.15576171875]</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>45.11883336111111</v>
+      </c>
+      <c r="D120" t="n">
+        <v>14.19436266666667</v>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>DJI_0352.JPG</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>[1730.42822265625, 654.0789794921875, 42.4530029296875, 42.3319091796875]</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>45.11866822222223</v>
+      </c>
+      <c r="D121" t="n">
+        <v>14.19444327777778</v>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>DJI_0353.JPG</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>[1764.507080078125, 1267.489990234375, 37.1527099609375, 37.2457275390625]</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>45.11855883333333</v>
+      </c>
+      <c r="D122" t="n">
+        <v>14.19456902777778</v>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>DJI_0354.JPG</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>[1370.7822265625, 2115.859130859375, 41.68603515625, 41.84814453125]</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>45.11843716666667</v>
+      </c>
+      <c r="D123" t="n">
+        <v>14.19483275</v>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>DJI_0355.JPG</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>[1233.603515625, 663.887939453125, 44.5255126953125, 45.2186279296875]</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>45.11852269444444</v>
+      </c>
+      <c r="D124" t="n">
+        <v>14.19494672222222</v>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>DJI_0362.JPG</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>[3326.230224609375, 1107.62890625, 38.72021484375, 35.2769775390625]</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>45.11880708333334</v>
+      </c>
+      <c r="D125" t="n">
+        <v>14.19459538888889</v>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>DJI_0367.JPG</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>[2085.26611328125, 1514.97802734375, 36.898681640625, 37.6058349609375]</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>45.11877422222222</v>
+      </c>
+      <c r="D126" t="n">
+        <v>14.19456830555556</v>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>DJI_0369.JPG</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>[2129.88916015625, 1573.007568359375, 37.867919921875, 37.5479736328125]</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
         <v>45.11867383333333</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D127" t="n">
         <v>14.19447027777778</v>
       </c>
-      <c r="E26" t="n">
-        <v>-174</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025:05:20 12:25:30</t>
-        </is>
-      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>DJI_0371.JPG</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>[1750.6087646484375, 991.2286376953125, 42.18359375, 42.19866943359375]</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>45.11853686111111</v>
+      </c>
+      <c r="D128" t="n">
+        <v>14.19461475</v>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>DJI_0372.JPG</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>[2006.87158203125, 1240.664794921875, 37.2171630859375, 34.7454833984375]</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>45.11862311111111</v>
+      </c>
+      <c r="D129" t="n">
+        <v>14.19468308333333</v>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>DJI_0373.JPG</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>[2155.7119140625, 1462.855712890625, 34.797607421875, 36.9593505859375]</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>45.11872119444445</v>
+      </c>
+      <c r="D130" t="n">
+        <v>14.19468369444444</v>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>DJI_0378.JPG</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>[4144.07421875, 2311.298583984375, 41.67822265625, 39.26318359375]</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>45.11842869444445</v>
+      </c>
+      <c r="D131" t="n">
+        <v>14.19436344444444</v>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>DJI_0380.JPG</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>[3479.8203125, 1051.9375, 36.439208984375, 36.9427490234375]</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>45.11880713888889</v>
+      </c>
+      <c r="D132" t="n">
+        <v>14.19435875</v>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>DJI_0383.JPG</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>[4101.353515625, 2389.21923828125, 54.395751953125, 54.148193359375]</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>45.11889666666666</v>
+      </c>
+      <c r="D133" t="n">
+        <v>14.194837</v>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2025:05:20 12:25:30</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
